--- a/data/trans_dic/P25D_R2_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R2_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01574022793614218</v>
+        <v>0.01629802566131776</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008084426189761221</v>
+        <v>0.007938497677531615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01436997192621085</v>
+        <v>0.01516776593202836</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0561951934868214</v>
+        <v>0.05688683723221082</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03427120234954902</v>
+        <v>0.03489292400266017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03977529146846463</v>
+        <v>0.03944320715875465</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.02865635380671571</v>
+        <v>0.02865635380671572</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02194864037724287</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02551995763837205</v>
+        <v>0.02551995763837204</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01429143938165107</v>
+        <v>0.01268888056118531</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01184440455300871</v>
+        <v>0.01168021962333905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01674331871222361</v>
+        <v>0.01586958854841846</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05188417423309457</v>
+        <v>0.05313602637443385</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03794362133120199</v>
+        <v>0.03666181855171527</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04028213912082972</v>
+        <v>0.04066011936256437</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.02176656545098026</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02799596089675393</v>
+        <v>0.02799596089675392</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02353412226030984</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01057661685214879</v>
+        <v>0.0101141090666792</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01174977317839673</v>
+        <v>0.01241113957488236</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0137789845429074</v>
+        <v>0.01374031241717626</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04188664835260089</v>
+        <v>0.038244360222474</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06660002434343631</v>
+        <v>0.06415528545115859</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03755667693699486</v>
+        <v>0.03779176648836484</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02684393837265183</v>
+        <v>0.02642377550085925</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01902581368400179</v>
+        <v>0.01843735265852666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02559777257713789</v>
+        <v>0.02590354989552241</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05943623122261877</v>
+        <v>0.0597866031538113</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04737195555808619</v>
+        <v>0.04716632641373301</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04837531352552717</v>
+        <v>0.04728684349312301</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.027592374488067</v>
+        <v>0.02759237448806699</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.007826875346201674</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01346533581697696</v>
+        <v>0.01285276888414075</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003555910785679278</v>
+        <v>0.00299815102731131</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008861132821708612</v>
+        <v>0.009259553065514309</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05579770842907269</v>
+        <v>0.04941918396512445</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01634452306067313</v>
+        <v>0.01665635344691996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02743825890478086</v>
+        <v>0.02696766511131672</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.02278436847232415</v>
+        <v>0.02278436847232416</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02029528697587837</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01031473285752047</v>
+        <v>0.01061412695852716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.010978206493949</v>
+        <v>0.01133510403259957</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08097407083221787</v>
+        <v>0.07814855026465499</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03801285020311602</v>
+        <v>0.03912464843219383</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0367175062295166</v>
+        <v>0.03714066386597348</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02428518617485713</v>
+        <v>0.02405748861910905</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01535556174252867</v>
+        <v>0.01518225102561305</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0211125275670476</v>
+        <v>0.02106736013186102</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04006676667890678</v>
+        <v>0.04033281365990728</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02565116327783495</v>
+        <v>0.02537356035813394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0307156309857523</v>
+        <v>0.03067978830840136</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8652</v>
+        <v>8959</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3941</v>
+        <v>3870</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14904</v>
+        <v>15732</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30889</v>
+        <v>31270</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16708</v>
+        <v>17011</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41255</v>
+        <v>40910</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6874</v>
+        <v>6104</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5003</v>
+        <v>4934</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15127</v>
+        <v>14337</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24957</v>
+        <v>25559</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16029</v>
+        <v>15487</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36393</v>
+        <v>36734</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4988</v>
+        <v>4770</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2195</v>
+        <v>2319</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9073</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19754</v>
+        <v>18036</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12443</v>
+        <v>11986</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24729</v>
+        <v>24884</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30297</v>
+        <v>29823</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16331</v>
+        <v>15826</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>50863</v>
+        <v>51471</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>67082</v>
+        <v>67477</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40663</v>
+        <v>40486</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>96122</v>
+        <v>93959</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7618</v>
+        <v>7272</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2950</v>
+        <v>2487</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12364</v>
+        <v>12919</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>31569</v>
+        <v>27961</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13557</v>
+        <v>13816</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38283</v>
+        <v>37627</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8701</v>
+        <v>8954</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11853</v>
+        <v>12239</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19120</v>
+        <v>18453</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>32067</v>
+        <v>33005</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>39645</v>
+        <v>40102</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>83367</v>
+        <v>82586</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>55713</v>
+        <v>55084</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>149077</v>
+        <v>148758</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>137543</v>
+        <v>138457</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>93068</v>
+        <v>92061</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>216885</v>
+        <v>216632</v>
       </c>
     </row>
     <row r="32">
